--- a/data/output/FV2304_FV2210/UTILMD/11148.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11148.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9278" uniqueCount="567">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9299" uniqueCount="567">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1877,6 +1877,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U424" totalsRowShown="0">
+  <autoFilter ref="A1:U424"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2166,7 +2196,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21785,5 +21818,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11148.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11148.xlsx
@@ -3548,7 +3548,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -6038,7 +6038,7 @@
         <v>523</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6190,7 +6190,7 @@
         <v>523</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6570,7 +6570,7 @@
         <v>525</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7100,7 +7100,7 @@
         <v>527</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -7592,7 +7592,7 @@
         <v>529</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7988,7 +7988,7 @@
         <v>530</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -8238,7 +8238,7 @@
         <v>532</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9426,7 +9426,7 @@
         <v>533</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -9714,7 +9714,7 @@
         <v>534</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9960,7 +9960,7 @@
         <v>535</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10734,7 +10734,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -11154,7 +11154,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -11304,7 +11304,7 @@
         <v>537</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -11442,7 +11442,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11984,7 +11984,7 @@
         <v>539</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -12122,7 +12122,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -12274,7 +12274,7 @@
         <v>540</v>
       </c>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -13580,7 +13580,7 @@
         <v>543</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -14906,7 +14906,7 @@
         <v>544</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -15114,7 +15114,7 @@
         <v>545</v>
       </c>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -15268,7 +15268,7 @@
         <v>545</v>
       </c>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -15476,7 +15476,7 @@
         <v>546</v>
       </c>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -16074,7 +16074,7 @@
         <v>547</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -16362,7 +16362,7 @@
         <v>548</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -16782,7 +16782,7 @@
         <v>546</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -16934,7 +16934,7 @@
         <v>548</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -17072,7 +17072,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -17216,7 +17216,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -17704,7 +17704,7 @@
         <v>549</v>
       </c>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -17910,7 +17910,7 @@
         <v>550</v>
       </c>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -18050,7 +18050,7 @@
         <v>551</v>
       </c>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -18462,7 +18462,7 @@
         <v>553</v>
       </c>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -18616,7 +18616,7 @@
         <v>553</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -18968,7 +18968,7 @@
         <v>555</v>
       </c>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -19364,7 +19364,7 @@
         <v>556</v>
       </c>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -19614,7 +19614,7 @@
         <v>532</v>
       </c>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -19802,7 +19802,7 @@
         <v>557</v>
       </c>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -20136,7 +20136,7 @@
         <v>558</v>
       </c>
       <c r="L337" s="4"/>
-      <c r="M337" s="2" t="s">
+      <c r="M337" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N337" s="2" t="s">
@@ -20324,7 +20324,7 @@
         <v>559</v>
       </c>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -20570,7 +20570,7 @@
         <v>560</v>
       </c>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -20852,7 +20852,7 @@
       </c>
       <c r="K352" s="2"/>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -20990,7 +20990,7 @@
         <v>561</v>
       </c>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -21138,7 +21138,7 @@
       </c>
       <c r="K358" s="2"/>
       <c r="L358" s="4"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N358" s="2" t="s">
@@ -21450,7 +21450,7 @@
         <v>563</v>
       </c>
       <c r="L364" s="4"/>
-      <c r="M364" s="2" t="s">
+      <c r="M364" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N364" s="2" t="s">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="K367" s="2"/>
       <c r="L367" s="4"/>
-      <c r="M367" s="2" t="s">
+      <c r="M367" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N367" s="2" t="s">
@@ -21732,7 +21732,7 @@
       </c>
       <c r="K370" s="2"/>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -21868,7 +21868,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -22014,7 +22014,7 @@
       </c>
       <c r="K376" s="2"/>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -22380,7 +22380,7 @@
         <v>564</v>
       </c>
       <c r="L383" s="4"/>
-      <c r="M383" s="2" t="s">
+      <c r="M383" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N383" s="2" t="s">
@@ -22518,7 +22518,7 @@
       </c>
       <c r="K386" s="2"/>
       <c r="L386" s="4"/>
-      <c r="M386" s="2" t="s">
+      <c r="M386" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N386" s="2" t="s">
@@ -22662,7 +22662,7 @@
       </c>
       <c r="K389" s="2"/>
       <c r="L389" s="4"/>
-      <c r="M389" s="2" t="s">
+      <c r="M389" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N389" s="2" t="s">
@@ -22798,7 +22798,7 @@
       </c>
       <c r="K392" s="2"/>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -22944,7 +22944,7 @@
       </c>
       <c r="K395" s="2"/>
       <c r="L395" s="4"/>
-      <c r="M395" s="2" t="s">
+      <c r="M395" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N395" s="2" t="s">
@@ -23094,7 +23094,7 @@
         <v>565</v>
       </c>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -23516,7 +23516,7 @@
         <v>567</v>
       </c>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -23654,7 +23654,7 @@
       </c>
       <c r="K410" s="2"/>
       <c r="L410" s="4"/>
-      <c r="M410" s="2" t="s">
+      <c r="M410" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N410" s="2" t="s">
@@ -23800,7 +23800,7 @@
       </c>
       <c r="K413" s="2"/>
       <c r="L413" s="4"/>
-      <c r="M413" s="2" t="s">
+      <c r="M413" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N413" s="2" t="s">
@@ -23948,7 +23948,7 @@
       </c>
       <c r="K416" s="2"/>
       <c r="L416" s="4"/>
-      <c r="M416" s="2" t="s">
+      <c r="M416" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N416" s="2" t="s">
@@ -24084,7 +24084,7 @@
       </c>
       <c r="K419" s="2"/>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="K422" s="2"/>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N422" s="2"/>
